--- a/Experiment 1/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 1/Trace Files/ThroughputGraph.xlsx
@@ -241,34 +241,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.7754468604099998</c:v>
+                  <c:v>436.615583082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7637969466300003</c:v>
+                  <c:v>457.337711974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7521470328500008</c:v>
+                  <c:v>475.31725117600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7404971191</c:v>
+                  <c:v>490.58223224099999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.728847205299999</c:v>
+                  <c:v>504.01554340500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.4455734533</c:v>
+                  <c:v>517.23549521899997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.372040653000001</c:v>
+                  <c:v>523.99744624699997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9899556247</c:v>
+                  <c:v>512.83996144499997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.294376918899999</c:v>
+                  <c:v>551.12267764800004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9845175996699993</c:v>
+                  <c:v>466.18050928000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,34 +347,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.7754468604099998</c:v>
+                  <c:v>436.615583082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7637969466300003</c:v>
+                  <c:v>457.337711974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7521470328500008</c:v>
+                  <c:v>475.31725117600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7404971191</c:v>
+                  <c:v>490.58223224099999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.728847205299999</c:v>
+                  <c:v>504.01554340500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.979543256099999</c:v>
+                  <c:v>522.65243003600006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.933210945500001</c:v>
+                  <c:v>529.01848125399999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.895236492900001</c:v>
+                  <c:v>554.62067992100003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.577347857199999</c:v>
+                  <c:v>583.84376187199996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9863667921299992</c:v>
+                  <c:v>465.865871314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,34 +453,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.7754468604099998</c:v>
+                  <c:v>436.615583082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7637969466300003</c:v>
+                  <c:v>457.337711974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7521470328500008</c:v>
+                  <c:v>475.31725117600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7404971191</c:v>
+                  <c:v>490.58223224099999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.728847205299999</c:v>
+                  <c:v>504.01554340500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.3692644152</c:v>
+                  <c:v>518.277151581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.320253296200001</c:v>
+                  <c:v>524.46795580699995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9669057183</c:v>
+                  <c:v>510.59175602400001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0149472179</c:v>
+                  <c:v>560.42559472300002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.089414043</c:v>
+                  <c:v>465.28300623000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,34 +559,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.4031879547499999</c:v>
+                  <c:v>423.87633241600003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3915380409600004</c:v>
+                  <c:v>445.37962413299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3798881271799992</c:v>
+                  <c:v>464.46806234100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3682382134</c:v>
+                  <c:v>480.91494584600002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.213088278600001</c:v>
+                  <c:v>496.56164433200001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0404087984</c:v>
+                  <c:v>509.27854533499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.1653286759</c:v>
+                  <c:v>512.28365244199995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.094264863599999</c:v>
+                  <c:v>441.28550654700001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.830693527399999</c:v>
+                  <c:v>463.23658880800002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9139146879600002</c:v>
+                  <c:v>465.03944311999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-188291744"/>
-        <c:axId val="-188290112"/>
+        <c:axId val="1153167072"/>
+        <c:axId val="1153160000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-188291744"/>
+        <c:axId val="1153167072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188290112"/>
+        <c:crossAx val="1153160000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,10 +713,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-188290112"/>
+        <c:axId val="1153160000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="6"/>
+          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -755,7 +755,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput (Mbps)</a:t>
+                  <a:t>Throughput (Kbps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -821,7 +821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188291744"/>
+        <c:crossAx val="1153167072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1786,16 +1786,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.7754468604099998</v>
+        <v>436.615583082</v>
       </c>
       <c r="C2">
-        <v>7.7754468604099998</v>
+        <v>436.615583082</v>
       </c>
       <c r="D2">
-        <v>7.7754468604099998</v>
+        <v>436.615583082</v>
       </c>
       <c r="E2">
-        <v>7.4031879547499999</v>
+        <v>423.87633241600003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1803,16 +1803,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.7637969466300003</v>
+        <v>457.337711974</v>
       </c>
       <c r="C3">
-        <v>8.7637969466300003</v>
+        <v>457.337711974</v>
       </c>
       <c r="D3">
-        <v>8.7637969466300003</v>
+        <v>457.337711974</v>
       </c>
       <c r="E3">
-        <v>8.3915380409600004</v>
+        <v>445.37962413299999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1820,16 +1820,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.7521470328500008</v>
+        <v>475.31725117600001</v>
       </c>
       <c r="C4">
-        <v>9.7521470328500008</v>
+        <v>475.31725117600001</v>
       </c>
       <c r="D4">
-        <v>9.7521470328500008</v>
+        <v>475.31725117600001</v>
       </c>
       <c r="E4">
-        <v>9.3798881271799992</v>
+        <v>464.46806234100001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1837,16 +1837,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.7404971191</v>
+        <v>490.58223224099999</v>
       </c>
       <c r="C5">
-        <v>10.7404971191</v>
+        <v>490.58223224099999</v>
       </c>
       <c r="D5">
-        <v>10.7404971191</v>
+        <v>490.58223224099999</v>
       </c>
       <c r="E5">
-        <v>10.3682382134</v>
+        <v>480.91494584600002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1854,16 +1854,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.728847205299999</v>
+        <v>504.01554340500002</v>
       </c>
       <c r="C6">
-        <v>11.728847205299999</v>
+        <v>504.01554340500002</v>
       </c>
       <c r="D6">
-        <v>11.728847205299999</v>
+        <v>504.01554340500002</v>
       </c>
       <c r="E6">
-        <v>11.213088278600001</v>
+        <v>496.56164433200001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12.4455734533</v>
+        <v>517.23549521899997</v>
       </c>
       <c r="C7">
-        <v>11.979543256099999</v>
+        <v>522.65243003600006</v>
       </c>
       <c r="D7">
-        <v>12.3692644152</v>
+        <v>518.277151581</v>
       </c>
       <c r="E7">
-        <v>12.0404087984</v>
+        <v>509.27854533499999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,16 +1888,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13.372040653000001</v>
+        <v>523.99744624699997</v>
       </c>
       <c r="C8">
-        <v>12.933210945500001</v>
+        <v>529.01848125399999</v>
       </c>
       <c r="D8">
-        <v>13.320253296200001</v>
+        <v>524.46795580699995</v>
       </c>
       <c r="E8">
-        <v>13.1653286759</v>
+        <v>512.28365244199995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,16 +1905,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.9899556247</v>
+        <v>512.83996144499997</v>
       </c>
       <c r="C9">
-        <v>10.895236492900001</v>
+        <v>554.62067992100003</v>
       </c>
       <c r="D9">
-        <v>11.9669057183</v>
+        <v>510.59175602400001</v>
       </c>
       <c r="E9">
-        <v>13.094264863599999</v>
+        <v>441.28550654700001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,16 +1922,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11.294376918899999</v>
+        <v>551.12267764800004</v>
       </c>
       <c r="C10">
-        <v>10.577347857199999</v>
+        <v>583.84376187199996</v>
       </c>
       <c r="D10">
-        <v>11.0149472179</v>
+        <v>560.42559472300002</v>
       </c>
       <c r="E10">
-        <v>11.830693527399999</v>
+        <v>463.23658880800002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,16 +1939,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.9845175996699993</v>
+        <v>466.18050928000002</v>
       </c>
       <c r="C11">
-        <v>9.9863667921299992</v>
+        <v>465.865871314</v>
       </c>
       <c r="D11">
-        <v>10.089414043</v>
+        <v>465.28300623000001</v>
       </c>
       <c r="E11">
-        <v>9.9139146879600002</v>
+        <v>465.03944311999999</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 1/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 1/Trace Files/ThroughputGraph.xlsx
@@ -241,34 +241,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>436.615583082</c:v>
+                  <c:v>412.68357059200002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>457.337711974</c:v>
+                  <c:v>412.686103742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475.31725117600001</c:v>
+                  <c:v>412.70368624700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490.58223224099999</c:v>
+                  <c:v>412.59737757200003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>504.01554340500002</c:v>
+                  <c:v>412.29611174799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>517.23549521899997</c:v>
+                  <c:v>412.162141265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523.99744624699997</c:v>
+                  <c:v>411.05910602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>512.83996144499997</c:v>
+                  <c:v>391.11712220499999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551.12267764800004</c:v>
+                  <c:v>396.89453252800001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>466.18050928000002</c:v>
+                  <c:v>383.30853857900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,34 +347,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>436.615583082</c:v>
+                  <c:v>412.68357059200002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>457.337711974</c:v>
+                  <c:v>412.686103742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475.31725117600001</c:v>
+                  <c:v>412.70368624700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490.58223224099999</c:v>
+                  <c:v>412.59737757200003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>504.01554340500002</c:v>
+                  <c:v>412.29611174799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522.65243003600006</c:v>
+                  <c:v>412.10208799100002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>529.01848125399999</c:v>
+                  <c:v>410.76115176500002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>554.62067992100003</c:v>
+                  <c:v>395.423732841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>583.84376187199996</c:v>
+                  <c:v>395.49455768799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465.865871314</c:v>
+                  <c:v>383.589059373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,34 +453,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>436.615583082</c:v>
+                  <c:v>412.68357059200002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>457.337711974</c:v>
+                  <c:v>412.686103742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475.31725117600001</c:v>
+                  <c:v>412.70368624700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490.58223224099999</c:v>
+                  <c:v>412.59737757200003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>504.01554340500002</c:v>
+                  <c:v>412.29611174799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>518.277151581</c:v>
+                  <c:v>412.27825744900002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>524.46795580699995</c:v>
+                  <c:v>410.96114256200002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>510.59175602400001</c:v>
+                  <c:v>390.27499691700001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>560.42559472300002</c:v>
+                  <c:v>394.59601126899997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465.28300623000001</c:v>
+                  <c:v>382.57145006299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,34 +559,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>423.87633241600003</c:v>
+                  <c:v>398.37125688399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.37962413299999</c:v>
+                  <c:v>397.70720436400001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>464.46806234100001</c:v>
+                  <c:v>397.71253797399999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480.91494584600002</c:v>
+                  <c:v>397.69098401700001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>496.56164433200001</c:v>
+                  <c:v>397.59014296800001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>509.27854533499999</c:v>
+                  <c:v>396.936397683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512.28365244199995</c:v>
+                  <c:v>395.33942435699998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441.28550654700001</c:v>
+                  <c:v>364.10016779400001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>463.23658880800002</c:v>
+                  <c:v>363.42325510699999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465.03944311999999</c:v>
+                  <c:v>452.74337010300002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1153167072"/>
-        <c:axId val="1153160000"/>
+        <c:axId val="-239411536"/>
+        <c:axId val="-239417520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1153167072"/>
+        <c:axId val="-239411536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153160000"/>
+        <c:crossAx val="-239417520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,10 +713,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1153160000"/>
+        <c:axId val="-239417520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="400"/>
+          <c:min val="360"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -821,7 +821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153167072"/>
+        <c:crossAx val="-239411536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1786,16 +1786,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>436.615583082</v>
+        <v>412.68357059200002</v>
       </c>
       <c r="C2">
-        <v>436.615583082</v>
+        <v>412.68357059200002</v>
       </c>
       <c r="D2">
-        <v>436.615583082</v>
+        <v>412.68357059200002</v>
       </c>
       <c r="E2">
-        <v>423.87633241600003</v>
+        <v>398.37125688399999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1803,16 +1803,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>457.337711974</v>
+        <v>412.686103742</v>
       </c>
       <c r="C3">
-        <v>457.337711974</v>
+        <v>412.686103742</v>
       </c>
       <c r="D3">
-        <v>457.337711974</v>
+        <v>412.686103742</v>
       </c>
       <c r="E3">
-        <v>445.37962413299999</v>
+        <v>397.70720436400001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1820,16 +1820,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>475.31725117600001</v>
+        <v>412.70368624700001</v>
       </c>
       <c r="C4">
-        <v>475.31725117600001</v>
+        <v>412.70368624700001</v>
       </c>
       <c r="D4">
-        <v>475.31725117600001</v>
+        <v>412.70368624700001</v>
       </c>
       <c r="E4">
-        <v>464.46806234100001</v>
+        <v>397.71253797399999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1837,16 +1837,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>490.58223224099999</v>
+        <v>412.59737757200003</v>
       </c>
       <c r="C5">
-        <v>490.58223224099999</v>
+        <v>412.59737757200003</v>
       </c>
       <c r="D5">
-        <v>490.58223224099999</v>
+        <v>412.59737757200003</v>
       </c>
       <c r="E5">
-        <v>480.91494584600002</v>
+        <v>397.69098401700001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1854,16 +1854,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>504.01554340500002</v>
+        <v>412.29611174799999</v>
       </c>
       <c r="C6">
-        <v>504.01554340500002</v>
+        <v>412.29611174799999</v>
       </c>
       <c r="D6">
-        <v>504.01554340500002</v>
+        <v>412.29611174799999</v>
       </c>
       <c r="E6">
-        <v>496.56164433200001</v>
+        <v>397.59014296800001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>517.23549521899997</v>
+        <v>412.162141265</v>
       </c>
       <c r="C7">
-        <v>522.65243003600006</v>
+        <v>412.10208799100002</v>
       </c>
       <c r="D7">
-        <v>518.277151581</v>
+        <v>412.27825744900002</v>
       </c>
       <c r="E7">
-        <v>509.27854533499999</v>
+        <v>396.936397683</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,16 +1888,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>523.99744624699997</v>
+        <v>411.05910602</v>
       </c>
       <c r="C8">
-        <v>529.01848125399999</v>
+        <v>410.76115176500002</v>
       </c>
       <c r="D8">
-        <v>524.46795580699995</v>
+        <v>410.96114256200002</v>
       </c>
       <c r="E8">
-        <v>512.28365244199995</v>
+        <v>395.33942435699998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,16 +1905,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>512.83996144499997</v>
+        <v>391.11712220499999</v>
       </c>
       <c r="C9">
-        <v>554.62067992100003</v>
+        <v>395.423732841</v>
       </c>
       <c r="D9">
-        <v>510.59175602400001</v>
+        <v>390.27499691700001</v>
       </c>
       <c r="E9">
-        <v>441.28550654700001</v>
+        <v>364.10016779400001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,16 +1922,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>551.12267764800004</v>
+        <v>396.89453252800001</v>
       </c>
       <c r="C10">
-        <v>583.84376187199996</v>
+        <v>395.49455768799999</v>
       </c>
       <c r="D10">
-        <v>560.42559472300002</v>
+        <v>394.59601126899997</v>
       </c>
       <c r="E10">
-        <v>463.23658880800002</v>
+        <v>363.42325510699999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,16 +1939,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>466.18050928000002</v>
+        <v>383.30853857900001</v>
       </c>
       <c r="C11">
-        <v>465.865871314</v>
+        <v>383.589059373</v>
       </c>
       <c r="D11">
-        <v>465.28300623000001</v>
+        <v>382.57145006299999</v>
       </c>
       <c r="E11">
-        <v>465.03944311999999</v>
+        <v>452.74337010300002</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 1/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 1/Trace Files/ThroughputGraph.xlsx
@@ -241,34 +241,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>412.68357059200002</c:v>
+                  <c:v>254.42110758699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.686103742</c:v>
+                  <c:v>254.42410711700001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>412.70368624700001</c:v>
+                  <c:v>254.444927681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.59737757200003</c:v>
+                  <c:v>254.31906572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.29611174799999</c:v>
+                  <c:v>253.962712307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412.162141265</c:v>
+                  <c:v>253.74727982600001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411.05910602</c:v>
+                  <c:v>252.43182975799999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.11712220499999</c:v>
+                  <c:v>229.31410958399999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>396.89453252800001</c:v>
+                  <c:v>233.54965816000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>383.30853857900001</c:v>
+                  <c:v>206.13053211600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,34 +347,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>412.68357059200002</c:v>
+                  <c:v>254.42110758699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.686103742</c:v>
+                  <c:v>254.42410711700001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>412.70368624700001</c:v>
+                  <c:v>254.444927681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.59737757200003</c:v>
+                  <c:v>254.31906572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.29611174799999</c:v>
+                  <c:v>253.962712307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412.10208799100002</c:v>
+                  <c:v>253.678349115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.76115176500002</c:v>
+                  <c:v>252.08253102200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>395.423732841</c:v>
+                  <c:v>233.90019216900001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>395.49455768799999</c:v>
+                  <c:v>231.709430443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>383.589059373</c:v>
+                  <c:v>205.99802929099999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,34 +453,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>412.68357059200002</c:v>
+                  <c:v>254.42110758699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.686103742</c:v>
+                  <c:v>254.42410711700001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>412.70368624700001</c:v>
+                  <c:v>254.444927681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.59737757200003</c:v>
+                  <c:v>254.31906572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.29611174799999</c:v>
+                  <c:v>253.962712307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412.27825744900002</c:v>
+                  <c:v>253.88477228799999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.96114256200002</c:v>
+                  <c:v>252.316787417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.27499691700001</c:v>
+                  <c:v>228.522074605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>394.59601126899997</c:v>
+                  <c:v>232.21872794999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>382.57145006299999</c:v>
+                  <c:v>207.040514637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,34 +559,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>398.37125688399999</c:v>
+                  <c:v>245.706865677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.70720436400001</c:v>
+                  <c:v>244.91991599799999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.71253797399999</c:v>
+                  <c:v>244.92622706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.69098401700001</c:v>
+                  <c:v>244.90072402000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>397.59014296800001</c:v>
+                  <c:v>244.75472891999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396.936397683</c:v>
+                  <c:v>243.96067908500001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>395.33942435699998</c:v>
+                  <c:v>242.10695176300001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364.10016779400001</c:v>
+                  <c:v>207.99293582600001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>363.42325510699999</c:v>
+                  <c:v>207.05692057300001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>452.74337010300002</c:v>
+                  <c:v>218.95679252599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-239411536"/>
-        <c:axId val="-239417520"/>
+        <c:axId val="1781762736"/>
+        <c:axId val="1781764368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-239411536"/>
+        <c:axId val="1781762736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-239417520"/>
+        <c:crossAx val="1781764368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,10 +713,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-239417520"/>
+        <c:axId val="1781764368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="360"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -821,7 +821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-239411536"/>
+        <c:crossAx val="1781762736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1786,16 +1786,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>412.68357059200002</v>
+        <v>254.42110758699999</v>
       </c>
       <c r="C2">
-        <v>412.68357059200002</v>
+        <v>254.42110758699999</v>
       </c>
       <c r="D2">
-        <v>412.68357059200002</v>
+        <v>254.42110758699999</v>
       </c>
       <c r="E2">
-        <v>398.37125688399999</v>
+        <v>245.706865677</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1803,16 +1803,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>412.686103742</v>
+        <v>254.42410711700001</v>
       </c>
       <c r="C3">
-        <v>412.686103742</v>
+        <v>254.42410711700001</v>
       </c>
       <c r="D3">
-        <v>412.686103742</v>
+        <v>254.42410711700001</v>
       </c>
       <c r="E3">
-        <v>397.70720436400001</v>
+        <v>244.91991599799999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1820,16 +1820,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>412.70368624700001</v>
+        <v>254.444927681</v>
       </c>
       <c r="C4">
-        <v>412.70368624700001</v>
+        <v>254.444927681</v>
       </c>
       <c r="D4">
-        <v>412.70368624700001</v>
+        <v>254.444927681</v>
       </c>
       <c r="E4">
-        <v>397.71253797399999</v>
+        <v>244.92622706</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1837,16 +1837,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>412.59737757200003</v>
+        <v>254.31906572</v>
       </c>
       <c r="C5">
-        <v>412.59737757200003</v>
+        <v>254.31906572</v>
       </c>
       <c r="D5">
-        <v>412.59737757200003</v>
+        <v>254.31906572</v>
       </c>
       <c r="E5">
-        <v>397.69098401700001</v>
+        <v>244.90072402000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1854,16 +1854,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>412.29611174799999</v>
+        <v>253.962712307</v>
       </c>
       <c r="C6">
-        <v>412.29611174799999</v>
+        <v>253.962712307</v>
       </c>
       <c r="D6">
-        <v>412.29611174799999</v>
+        <v>253.962712307</v>
       </c>
       <c r="E6">
-        <v>397.59014296800001</v>
+        <v>244.75472891999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,16 +1871,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>412.162141265</v>
+        <v>253.74727982600001</v>
       </c>
       <c r="C7">
-        <v>412.10208799100002</v>
+        <v>253.678349115</v>
       </c>
       <c r="D7">
-        <v>412.27825744900002</v>
+        <v>253.88477228799999</v>
       </c>
       <c r="E7">
-        <v>396.936397683</v>
+        <v>243.96067908500001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,16 +1888,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>411.05910602</v>
+        <v>252.43182975799999</v>
       </c>
       <c r="C8">
-        <v>410.76115176500002</v>
+        <v>252.08253102200001</v>
       </c>
       <c r="D8">
-        <v>410.96114256200002</v>
+        <v>252.316787417</v>
       </c>
       <c r="E8">
-        <v>395.33942435699998</v>
+        <v>242.10695176300001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1905,16 +1905,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>391.11712220499999</v>
+        <v>229.31410958399999</v>
       </c>
       <c r="C9">
-        <v>395.423732841</v>
+        <v>233.90019216900001</v>
       </c>
       <c r="D9">
-        <v>390.27499691700001</v>
+        <v>228.522074605</v>
       </c>
       <c r="E9">
-        <v>364.10016779400001</v>
+        <v>207.99293582600001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,16 +1922,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>396.89453252800001</v>
+        <v>233.54965816000001</v>
       </c>
       <c r="C10">
-        <v>395.49455768799999</v>
+        <v>231.709430443</v>
       </c>
       <c r="D10">
-        <v>394.59601126899997</v>
+        <v>232.21872794999999</v>
       </c>
       <c r="E10">
-        <v>363.42325510699999</v>
+        <v>207.05692057300001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,16 +1939,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>383.30853857900001</v>
+        <v>206.13053211600001</v>
       </c>
       <c r="C11">
-        <v>383.589059373</v>
+        <v>205.99802929099999</v>
       </c>
       <c r="D11">
-        <v>382.57145006299999</v>
+        <v>207.040514637</v>
       </c>
       <c r="E11">
-        <v>452.74337010300002</v>
+        <v>218.95679252599999</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 1/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 1/Trace Files/ThroughputGraph.xlsx
@@ -114,11 +114,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -147,11 +147,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -184,7 +184,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -290,7 +290,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -396,7 +396,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -502,7 +502,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -601,12 +601,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1781762736"/>
-        <c:axId val="1781764368"/>
+        <c:axId val="121118512"/>
+        <c:axId val="121123408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1781762736"/>
+        <c:axId val="121118512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,9 +634,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -652,9 +667,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -676,7 +691,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -690,9 +705,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -705,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781764368"/>
+        <c:crossAx val="121123408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,27 +728,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1781764368"/>
+        <c:axId val="121123408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -741,9 +742,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -774,9 +775,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -806,9 +807,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -821,12 +822,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781762736"/>
+        <c:crossAx val="121118512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -851,7 +864,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -871,11 +884,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -943,25 +956,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -969,7 +982,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -977,22 +990,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1000,16 +1013,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1043,46 +1056,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1094,33 +1121,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1136,21 +1164,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1165,13 +1191,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1184,64 +1210,176 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1249,120 +1387,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1371,12 +1413,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1385,14 +1427,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1401,7 +1442,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1421,9 +1462,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1434,26 +1475,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1468,10 +1503,10 @@
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>349624</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3842</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Experiment 1/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 1/Trace Files/ThroughputGraph.xlsx
@@ -114,11 +114,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -147,11 +147,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -184,7 +184,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -290,7 +290,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -396,7 +396,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -502,7 +502,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -601,27 +601,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="121118512"/>
-        <c:axId val="121123408"/>
+        <c:axId val="-1036364384"/>
+        <c:axId val="-1036374720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121118512"/>
+        <c:axId val="-1036364384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,9 +619,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -648,7 +633,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CBR</a:t>
+                  <a:t>CBR (Mbps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -667,9 +652,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -691,7 +676,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -705,9 +690,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -720,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121123408"/>
+        <c:crossAx val="-1036374720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,13 +713,27 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121123408"/>
+        <c:axId val="-1036374720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -742,9 +741,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -775,9 +774,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -807,9 +806,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -822,24 +821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121118512"/>
+        <c:crossAx val="-1036364384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -864,7 +851,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -884,11 +871,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -956,25 +943,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -982,7 +969,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -990,22 +977,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1013,16 +1000,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1056,60 +1043,46 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1121,34 +1094,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1164,222 +1136,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1388,8 +1154,8 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
+  </cs:dataTable>
+  <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1397,14 +1163,206 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1413,12 +1371,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1427,13 +1385,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1442,7 +1401,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1462,9 +1421,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1475,20 +1434,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1498,19 +1463,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
+      <xdr:colOff>218995</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:rowOff>34578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484094</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23052</xdr:rowOff>
+      <xdr:colOff>476410</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1794,7 +1759,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
